--- a/biology/Botanique/Roseau/Roseau.xlsx
+++ b/biology/Botanique/Roseau/Roseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle « roseau » diverses plantes des sols humides d'assez grande taille, à tige creuse et rigide, plus ou moins ligneuse. Il s'agit d'un terme ambigu qui en général, en français, peut désigner des poacées (ou graminées), appartenant particulièrement aux genres Arundo ou Phragmites.
 Un lieu planté de roseaux est une roselière, biotope très riche en particulier pour la faune aviaire.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme roseau est dérivé de l'ancien français ros « roseau », attesté au XIe siècle (plus anciennement encore sous la forme raus, fin Xe siècle), par l'intermédiaire d'une forme rosel, diminutif en -el &gt; -eau. Le terme apparait dans des gloses dès le IXe siècle pour traduire les termes latins arundo et calamus. Il remonte au vieux bas francique *raus-, qui remonte au germanique occidental *rauz-[1], même mot que le germanique oriental cf. gotique raus. Il a donné par rhotacisme, l'allemand Rohr « tuyau » (le vieux haut allemand rôr désignait aussi le roseau, sens qu'à encore accessoirement le mot allemand Rohr, cf. Schilfrohr « roseau »).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme roseau est dérivé de l'ancien français ros « roseau », attesté au XIe siècle (plus anciennement encore sous la forme raus, fin Xe siècle), par l'intermédiaire d'une forme rosel, diminutif en -el &gt; -eau. Le terme apparait dans des gloses dès le IXe siècle pour traduire les termes latins arundo et calamus. Il remonte au vieux bas francique *raus-, qui remonte au germanique occidental *rauz-, même mot que le germanique oriental cf. gotique raus. Il a donné par rhotacisme, l'allemand Rohr « tuyau » (le vieux haut allemand rôr désignait aussi le roseau, sens qu'à encore accessoirement le mot allemand Rohr, cf. Schilfrohr « roseau »).
 On le trouve associé de manière fréquente au nom germanique du ruisseau *bakiz (cf. néerlandais beek, allemand Bach « ruisseau ») dans des toponymes de la France du nord, tels Robecq, Roubaix, Rebecq, Rebais, Rebets, etc. et au suffixe gallo-roman -etu (&lt; latin -etum; d’où féminin -aie : chênaie, etc.) dans les types toponymiques Rosay, Rosoy qui ont tous le sens de « roselière », l’ancien français rosei, dont ils procèdent, étant tombé en désuétude. En revanche, il convient de ne pas confondre avec roseraie dérivé à partir du nom du rosier.
 Les autres langues romanes, sauf l'occitan qui possède aussi le terme germanique, conservent uniquement des termes prélatins ou latins (latin canna, issu du grec κάννα / kanna), d'où occitan canavèra, canna, caravena (dial), rausa, rausèl ; italien cannuccia, canna ; corse canna ; espagnol carrizo, caña ; portugais cana, caniço ; catalan canya, etc.
 </t>
@@ -545,7 +559,9 @@
           <t>Le roseau commun ou petit roseau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom scientifique : Phragmites australis (Cav.) Trin. ex Steud.
 Famille des Poacées (ou Graminées), sous-famille des Arundinoideae, tribu des Arundineae.
@@ -581,7 +597,9 @@
           <t>Le grand roseau ou canne de Provence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom scientifique : Arundo donax L.
 Famille des Poacées (ou Graminées), sous-famille des Arundinoideae, tribu des Arundineae.
@@ -621,7 +639,9 @@
           <t>Le faux roseau ou alpiste roseau</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom scientifique : Phalaris arundinacea L.
 Famille des Poacées (ou Graminées), sous-famille des Pooideae, tribu des Aveneae.
@@ -658,68 +678,285 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le roseau aromatique
-Nom scientifique : Acorus calamus L.
+          <t>Le roseau aromatique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique : Acorus calamus L.
 Famille des Acoracées.
 C'est l'acore calame ou acore odorant, appelé aussi roseau odorant. Plante vivace, originaire de l'Asie tempérée, introduite en Europe vers le XVIe siècle, qui pousse dans les cours d'eau et les étangs.
 Utilisée parfois pour l'ornementation des pièces d'eau, c'est une plante vénéneuse.
 Dans la Bible, le roseau aromatique entre dans la composition du parfum consacré à Dieu par Moïse (Exode 30,23). Cependant, il s'agit certainement d'une autre plante odorante, Moïse étant en plein désert. Il pourrait s'agir de chanvre, considéré par de nombreux peuples comme un roseau dû à son expansion le long des fleuves et à sa fibre ligneuse, ou comme mauvaise herbe car elle suit les mouvements de population. On sait également que cette plante était souvent utilisée pour la fabrication de cordes et de tissus.
-Le roseau à plumes ou herbe de la pampa
-Nom scientifique : Cortaderia selloana (Schult. &amp; Schult.f.) Asch. &amp; Graebn.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Roseau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autres roseaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le roseau à plumes ou herbe de la pampa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique : Cortaderia selloana (Schult. &amp; Schult.f.) Asch. &amp; Graebn.
 Famille des Poacées, sous-famille des Danthonioideae, tribu des Danthonieae.
 Plante ornementale originaire d'Amérique du Sud. Les phragmites et acores sont utilisés en lagunage pour leurs capacités dépolluantes.
-Le roseau des bois
-Nom scientifique : Calamagrostis epigejos   (L.) Roth
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Roseau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Autres roseaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le roseau des bois</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique : Calamagrostis epigejos   (L.) Roth
 Famille des Poaceae, sous-famille des Pooideae, tribu des Aveneae.
 Plantes vivace, des bois et pâturages humides, à rhizome traçant, de 0,7 à 1,2 m de hauteur, appelée aussi roseau terrestre ou roseau des collines, répandue en Europe et en Asie.
-La calamagrostide faux-roseau ou roseau des montagnes
-Nom scientifique : Calamagrostis arundinacea   (L.) Roth 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Roseau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Autres roseaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La calamagrostide faux-roseau ou roseau des montagnes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique : Calamagrostis arundinacea   (L.) Roth 
 Famille des Poaceae, sous-famille des Pooideae, tribu des Aveneae.
 Plante vivace des bois de montagne, spontanée en Europe et en Asie, de 1,2 m de haut environ.
-Le roseau des sables
-Nom scientifique : Ammophila arenaria   (L.) Link
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Roseau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Autres roseaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Le roseau des sables</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique : Ammophila arenaria   (L.) Link
 Famille des Poaceae, sous-famille des Pooideae, tribu des Aveneae.
 C'est l'oyat ou gourbet, plante vivace de 0,4 à 1 m de haut, à très longue tiges souterraines, traçantes qui perpétuent la plante. Les feuilles raides et effilées sont enroulés sur elles-mêmes par le bord du limbe. Cette plante est très utilisée pour fixer les dunes. Les tiges servent pour faire les toits de chaume ou pour fabriquer des nattes.
-Le roseau des étangs
-Nom scientifique : Typha latifolia L.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Roseau</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseau</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Autres roseaux</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Le roseau des étangs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique : Typha latifolia L.
 Famille des Typhacées.
 Appelée aussi massette à larges feuilles, masse d'eau, quenouille, roseau-de-la-passion, cette plante est très commune sur toute la planète, dans les zones humides. Elle atteint 1 à 2 mètres de haut et présente une inflorescence remarquable en forme de deux épis portés par la même tige, l'épi staminé (mâle) plus réduit surmontant l'épi pistillé (femelle), brun noirâtre de 15 cm de long et 2 cm de diamètre environ. En hiver, on peut tirer une matière cotonneuse de ces épis, qui a par exemple en Amérique du Nord servi à produire des sortes de couches absorbantes pour les bébés amérindiens.
 C'est une plante vivace qui, par ses rhizomes, donne de nombreux rejets. La croissance souterraine de la plante contribue à décolmater et aérer les vases, permettant un travail d'épuration de l'eau, même en hiver, lorsque la végétation est au repos, par les bactéries vivant sur les racines.
 Les grandes roselières de typhas abritent de nombreux oiseaux, dont le butor, mais c'est un habitat qui a beaucoup régressé depuis 3 siècles avec le drainage et la mise en culture des zones humides.
 Utilisations : ornement des pièces d'eau ; confection de toitures, de nattes... Les jeunes pousses sont comestibles, ainsi que les rhizomes.
-Le roseau à flèche
-Nom scientifique : Gynerium sagittatum (Aubl.) P.Beauv., 1812
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Roseau</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseau</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Autres roseaux</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Le roseau à flèche</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nom scientifique : Gynerium sagittatum (Aubl.) P.Beauv., 1812
 Famille des Poaceae, sous-famille des Panicoideae, tribu des Gynerieae.
 Plante vivace d'Amérique du sud dépassant souvent 5 m de haut, et dont la hampe florale est employée pour la fabrication de flèches.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Roseau</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roseau</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Roseau</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseau</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Travail du roseau</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roseau est utilisé pour fabriquer des anches destinés aux instruments de musique et pour fabriquer des flûtes comme le ney. On l'utilise également pour tresser des vanneries, ou pour produire des balais. Il a autrefois aussi servi de tapis posés sur les sols pour rendre circulable des zones très boueuses. Dans les Andes, et notamment sur et autour du lac Titicaca, certains peuples utilisent depuis 5 000 ans un roseau local (totora) pour en faire des bateaux (caballitos), des maisons, des voiles et de nombreux objets du quotidien.
 En tant que plante macrophyte, le roseau est également utilisé dans certains systèmes de stations d'épuration.
@@ -730,40 +967,76 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Roseau</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Roseau</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Roseau</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseau</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Dans les arts</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« L'homme est un roseau pensant. » (Blaise Pascal) ;
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>« L'homme est un roseau pensant. » (Blaise Pascal) ;
 Le Roseau et l'Olivier, fable d'Ésope
 Le Chêne et le Roseau, fable de Jean de La Fontaine, adaptée de celle d'Ésope
 Le Chêne et le Roseau, fable de Jean Anouilh, adaptée de la fable de La Fontaine ; contrairement à ce dernier, Anouilh y prend parti pour le personnage du Chêne.
 Chêne et roseau, chanson des Cowboys fringants sur l'album L’Expédition, adaptée de la fable de La Fontaine.
-"Les roseaux sauvages", André Téchiné
-Calendrier républicain
-Le nom du roseau fut attribué au 23e jour du mois de frimaire du calendrier républicain ou révolutionnaire français[2], généralement chaque 13 décembre du grégorien.
+"Les roseaux sauvages", André Téchiné</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Roseau</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roseau</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Dans les arts</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du roseau fut attribué au 23e jour du mois de frimaire du calendrier républicain ou révolutionnaire français, généralement chaque 13 décembre du grégorien.
 </t>
         </is>
       </c>
